--- a/biology/Zoologie/Chelotriton/Chelotriton.xlsx
+++ b/biology/Zoologie/Chelotriton/Chelotriton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelotriton paradoxus
 Chelotriton est un genre fossile de salamandres préhistoriques qui vivaient en Europe et en Asie centrale pendant le Néogène.
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre, décrit par Auguste Pomel en 1853[1],[2] ressemble étroitement aux genres existants Tylototriton et Echinotriton[3]. Outre l'espèce Chelotriton paradoxus décrite en 1853[4], il existe aussi le Chelotriton robustus analysée par Westphal en 1979[5] et le Chelotriton ogygius décrit en 1831 par Goldfuss[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre, décrit par Auguste Pomel en 1853, ressemble étroitement aux genres existants Tylototriton et Echinotriton. Outre l'espèce Chelotriton paradoxus décrite en 1853, il existe aussi le Chelotriton robustus analysée par Westphal en 1979 et le Chelotriton ogygius décrit en 1831 par Goldfuss.
 </t>
         </is>
       </c>
